--- a/samplefile.xlsx
+++ b/samplefile.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Общие сведения" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="Накладная 1" sheetId="2" r:id="rId2" state="visible"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId3" state="visible"/>
-    <sheet name="Справочники" sheetId="4" r:id="rId4" state="visible"/>
-    <sheet name="Новый лист" sheetId="5" r:id="rId8"/>
+    <sheet name="Общие сведения" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Накладная 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Справочники" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -484,17 +483,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="64"/>
+      <sz val="10.000000"/>
       <name val="Courier New"/>
     </font>
   </fonts>
@@ -516,22 +514,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -824,7 +821,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -1027,7 +1024,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1040,21 +1036,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="true" max="1" min="1" style="1" width="17.00390625"/>
-    <col bestFit="true" max="2" min="2" style="1" width="22.140625"/>
-    <col bestFit="true" max="3" min="3" width="9.8515625"/>
+    <col bestFit="1" min="1" max="1" style="1" width="17.00390625"/>
+    <col bestFit="1" min="2" max="2" style="1" width="22.140625"/>
+    <col bestFit="1" min="3" max="3" width="9.8515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <f>INDEX('Справочники'!$D$1:$D$71,MATCH(B1,'Справочники'!$C$1:$C$71,0))</f>
-        <v>ДТЭГ нет</v>
+        <v xml:space="preserve">ДТЭГ нет</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1062,15 +1058,15 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="2" t="str">
         <f>INDEX('Справочники'!$B$1:$B$71,MATCH(B3,'Справочники'!$A$1:$A$71,0))</f>
-        <v>ХРОМТАУ КЕДЕН БЕКЕТІ</v>
+        <v xml:space="preserve">ХРОМТАУ КЕДЕН БЕКЕТІ</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1346,17 +1342,17 @@
       <c r="B71" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" promptTitle="" showErrorMessage="true" showInputMessage="true" sqref="B3" type="list">
+  <dataValidations count="2" disablePrompts="0">
+    <dataValidation sqref="B3" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" promptTitle="" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>'Справочники'!$A2:$A71</formula1>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showErrorMessage="true" showInputMessage="true" sqref="B1" type="list">
+    <dataValidation sqref="B1" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>'Справочники'!$C$2:$C$5</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
-  <pageSetup cellComments="none" copies="1" errors="displayed" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" usePrinterDefaults="true" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1368,11 +1364,11 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <printOptions/>
-  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
-  <pageSetup cellComments="none" copies="1" errors="displayed" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" usePrinterDefaults="true" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1394,6002 +1390,6002 @@
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A1:B1,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 1")</v>
+        <f t="shared" ref="C1:C9" si="0">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A1:B1,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 1")</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A2:B2,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 2")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 2")</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A3:B3,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 3")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 3")</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A4:B4,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 4")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 4")</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A5:B5,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 5")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 5")</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A6:B6,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 6")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 6")</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A7:B7,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 7")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 7")</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A8:B8,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 8")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 8")</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A9:B9,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 9")</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 9")</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A10:B10,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 10")</v>
+        <f t="shared" ref="C10:C73" si="1">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A10:B10,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 10")</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A11:B11,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 11")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 11")</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A12:B12,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 12")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 12")</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A13:B13,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 13")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 13")</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A14:B14,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 14")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 14")</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A15:B15,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 15")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 15")</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A16:B16,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 16")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 16")</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A17:B17,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 17")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 17")</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A18:B18,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 18")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 18")</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A19:B19,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 19")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 19")</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A20:B20,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 20")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 20")</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A21:B21,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 21")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 21")</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A22:B22,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 22")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 22")</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A23:B23,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 23")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 23")</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A24:B24,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 24")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 24")</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A25:B25,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 25")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 25")</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A26:B26,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 26")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 26")</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="C27" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A27:B27,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 27")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 27")</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A28:B28,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 28")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 28")</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A29:B29,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 29")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 29")</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A30:B30,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 30")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 30")</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A31:B31,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 31")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 31")</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A32:B32,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 32")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 32")</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A33:B33,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 33")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 33")</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A34:B34,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 34")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 34")</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A35:B35,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 35")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 35")</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A36:B36,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 36")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 36")</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A37:B37,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 37")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 37")</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A38:B38,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 38")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 38")</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A39:B39,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 39")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 39")</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A40:B40,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 40")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 40")</v>
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A41:B41,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 41")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 41")</v>
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A42:B42,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 42")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 42")</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A43:B43,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 43")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 43")</v>
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A44:B44,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 44")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 44")</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A45:B45,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 45")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 45")</v>
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A46:B46,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 46")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 46")</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A47:B47,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 47")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 47")</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A48:B48,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 48")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 48")</v>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A49:B49,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 49")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 49")</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A50:B50,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 50")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 50")</v>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A51:B51,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 51")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 51")</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
       <c r="C52" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A52:B52,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 52")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 52")</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A53:B53,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 53")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 53")</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="C54" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A54:B54,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 54")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 54")</v>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B55">
         <v>55</v>
       </c>
       <c r="C55" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A55:B55,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 55")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 55")</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
       <c r="C56" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A56:B56,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 56")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 56")</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B57">
         <v>57</v>
       </c>
       <c r="C57" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A57:B57,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 57")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 57")</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B58">
         <v>58</v>
       </c>
       <c r="C58" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A58:B58,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 58")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 58")</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B59">
         <v>59</v>
       </c>
       <c r="C59" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A59:B59,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 59")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 59")</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B60">
         <v>60</v>
       </c>
       <c r="C60" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A60:B60,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 60")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 60")</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A61:B61,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 61")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 61")</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B62">
         <v>62</v>
       </c>
       <c r="C62" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A62:B62,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 62")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 62")</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B63">
         <v>63</v>
       </c>
       <c r="C63" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A63:B63,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 63")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 63")</v>
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="C64" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A64:B64,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 64")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 64")</v>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B65">
         <v>65</v>
       </c>
       <c r="C65" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A65:B65,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 65")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 65")</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A66:B66,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 66")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 66")</v>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B67">
         <v>67</v>
       </c>
       <c r="C67" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A67:B67,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 67")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 67")</v>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B68">
         <v>68</v>
       </c>
       <c r="C68" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A68:B68,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 68")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 68")</v>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B69">
         <v>69</v>
       </c>
       <c r="C69" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A69:B69,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 69")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 69")</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B70">
         <v>70</v>
       </c>
       <c r="C70" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A70:B70,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 70")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 70")</v>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A71:B71,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 71")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 71")</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B72">
         <v>72</v>
       </c>
       <c r="C72" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A72:B72,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 72")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 72")</v>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A73:B73,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 73")</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 73")</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A74:B74,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 74")</v>
+        <f t="shared" ref="C74:C99" si="2">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A74:B74,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 74")</v>
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A75:B75,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 75")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 75")</v>
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B76">
         <v>76</v>
       </c>
       <c r="C76" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A76:B76,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 76")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 76")</v>
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B77">
         <v>77</v>
       </c>
       <c r="C77" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A77:B77,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 77")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 77")</v>
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A78:B78,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 78")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 78")</v>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A79:B79,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 79")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 79")</v>
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A80:B80,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 80")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 80")</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B81">
         <v>81</v>
       </c>
       <c r="C81" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A81:B81,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 81")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 81")</v>
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B82">
         <v>82</v>
       </c>
       <c r="C82" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A82:B82,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 82")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 82")</v>
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B83">
         <v>83</v>
       </c>
       <c r="C83" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A83:B83,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 83")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 83")</v>
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B84">
         <v>84</v>
       </c>
       <c r="C84" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A84:B84,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 84")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 84")</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B85">
         <v>85</v>
       </c>
       <c r="C85" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A85:B85,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 85")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 85")</v>
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B86">
         <v>86</v>
       </c>
       <c r="C86" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A86:B86,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 86")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 86")</v>
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B87">
         <v>87</v>
       </c>
       <c r="C87" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A87:B87,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 87")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 87")</v>
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B88">
         <v>88</v>
       </c>
       <c r="C88" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A88:B88,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 88")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 88")</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B89">
         <v>89</v>
       </c>
       <c r="C89" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A89:B89,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 89")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 89")</v>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B90">
         <v>90</v>
       </c>
       <c r="C90" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A90:B90,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 90")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 90")</v>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B91">
         <v>91</v>
       </c>
       <c r="C91" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A91:B91,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 91")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 91")</v>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B92">
         <v>92</v>
       </c>
       <c r="C92" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A92:B92,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 92")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 92")</v>
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B93">
         <v>93</v>
       </c>
       <c r="C93" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A93:B93,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 93")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 93")</v>
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B94">
         <v>94</v>
       </c>
       <c r="C94" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A94:B94,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 94")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 94")</v>
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B95">
         <v>95</v>
       </c>
       <c r="C95" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A95:B95,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 95")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 95")</v>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B96">
         <v>96</v>
       </c>
       <c r="C96" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A96:B96,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 96")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 96")</v>
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B97">
         <v>97</v>
       </c>
       <c r="C97" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A97:B97,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 97")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 97")</v>
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B98">
         <v>98</v>
       </c>
       <c r="C98" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A98:B98,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 98")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 98")</v>
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B99">
         <v>99</v>
       </c>
       <c r="C99" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A99:B99,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 99")</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 99")</v>
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B100">
         <v>100</v>
       </c>
       <c r="C100" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A100:B100,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 100")</v>
+        <f t="shared" ref="C100:C163" si="3">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A100:B100,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 100")</v>
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B101">
         <v>101</v>
       </c>
       <c r="C101" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A101:B101,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 101")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 101")</v>
       </c>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B102">
         <v>102</v>
       </c>
       <c r="C102" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A102:B102,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 102")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 102")</v>
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B103">
         <v>103</v>
       </c>
       <c r="C103" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A103:B103,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 103")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 103")</v>
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B104">
         <v>104</v>
       </c>
       <c r="C104" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A104:B104,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 104")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 104")</v>
       </c>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B105">
         <v>105</v>
       </c>
       <c r="C105" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A105:B105,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 105")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 105")</v>
       </c>
     </row>
     <row r="106" ht="14.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B106">
         <v>106</v>
       </c>
       <c r="C106" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A106:B106,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 106")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 106")</v>
       </c>
     </row>
     <row r="107" ht="14.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B107">
         <v>107</v>
       </c>
       <c r="C107" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A107:B107,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 107")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 107")</v>
       </c>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B108">
         <v>108</v>
       </c>
       <c r="C108" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A108:B108,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 108")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 108")</v>
       </c>
     </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B109">
         <v>109</v>
       </c>
       <c r="C109" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A109:B109,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 109")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 109")</v>
       </c>
     </row>
     <row r="110" ht="14.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B110">
         <v>110</v>
       </c>
       <c r="C110" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A110:B110,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 110")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 110")</v>
       </c>
     </row>
     <row r="111" ht="14.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B111">
         <v>111</v>
       </c>
       <c r="C111" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A111:B111,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 111")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 111")</v>
       </c>
     </row>
     <row r="112" ht="14.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B112">
         <v>112</v>
       </c>
       <c r="C112" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A112:B112,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 112")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 112")</v>
       </c>
     </row>
     <row r="113" ht="14.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B113">
         <v>113</v>
       </c>
       <c r="C113" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A113:B113,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 113")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 113")</v>
       </c>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B114">
         <v>114</v>
       </c>
       <c r="C114" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A114:B114,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 114")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 114")</v>
       </c>
     </row>
     <row r="115" ht="14.25">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B115">
         <v>115</v>
       </c>
       <c r="C115" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A115:B115,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 115")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 115")</v>
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B116">
         <v>116</v>
       </c>
       <c r="C116" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A116:B116,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 116")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 116")</v>
       </c>
     </row>
     <row r="117" ht="14.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B117">
         <v>117</v>
       </c>
       <c r="C117" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A117:B117,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 117")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 117")</v>
       </c>
     </row>
     <row r="118" ht="14.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B118">
         <v>118</v>
       </c>
       <c r="C118" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A118:B118,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 118")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 118")</v>
       </c>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B119">
         <v>119</v>
       </c>
       <c r="C119" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A119:B119,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 119")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 119")</v>
       </c>
     </row>
     <row r="120" ht="14.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B120">
         <v>120</v>
       </c>
       <c r="C120" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A120:B120,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 120")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 120")</v>
       </c>
     </row>
     <row r="121" ht="14.25">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B121">
         <v>121</v>
       </c>
       <c r="C121" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A121:B121,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 121")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 121")</v>
       </c>
     </row>
     <row r="122" ht="14.25">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B122">
         <v>122</v>
       </c>
       <c r="C122" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A122:B122,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 122")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 122")</v>
       </c>
     </row>
     <row r="123" ht="14.25">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B123">
         <v>123</v>
       </c>
       <c r="C123" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A123:B123,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 123")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 123")</v>
       </c>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B124">
         <v>124</v>
       </c>
       <c r="C124" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A124:B124,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 124")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 124")</v>
       </c>
     </row>
     <row r="125" ht="14.25">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B125">
         <v>125</v>
       </c>
       <c r="C125" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A125:B125,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 125")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 125")</v>
       </c>
     </row>
     <row r="126" ht="14.25">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B126">
         <v>126</v>
       </c>
       <c r="C126" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A126:B126,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 126")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 126")</v>
       </c>
     </row>
     <row r="127" ht="14.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B127">
         <v>127</v>
       </c>
       <c r="C127" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A127:B127,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 127")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 127")</v>
       </c>
     </row>
     <row r="128" ht="14.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B128">
         <v>128</v>
       </c>
       <c r="C128" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A128:B128,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 128")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 128")</v>
       </c>
     </row>
     <row r="129" ht="14.25">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B129">
         <v>129</v>
       </c>
       <c r="C129" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A129:B129,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 129")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 129")</v>
       </c>
     </row>
     <row r="130" ht="14.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B130">
         <v>130</v>
       </c>
       <c r="C130" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A130:B130,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 130")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 130")</v>
       </c>
     </row>
     <row r="131" ht="14.25">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B131">
         <v>131</v>
       </c>
       <c r="C131" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A131:B131,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 131")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 131")</v>
       </c>
     </row>
     <row r="132" ht="14.25">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B132">
         <v>132</v>
       </c>
       <c r="C132" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A132:B132,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 132")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 132")</v>
       </c>
     </row>
     <row r="133" ht="14.25">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B133">
         <v>133</v>
       </c>
       <c r="C133" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A133:B133,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 133")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 133")</v>
       </c>
     </row>
     <row r="134" ht="14.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B134">
         <v>134</v>
       </c>
       <c r="C134" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A134:B134,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 134")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 134")</v>
       </c>
     </row>
     <row r="135" ht="14.25">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B135">
         <v>135</v>
       </c>
       <c r="C135" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A135:B135,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 135")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 135")</v>
       </c>
     </row>
     <row r="136" ht="14.25">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B136">
         <v>136</v>
       </c>
       <c r="C136" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A136:B136,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 136")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 136")</v>
       </c>
     </row>
     <row r="137" ht="14.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B137">
         <v>137</v>
       </c>
       <c r="C137" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A137:B137,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 137")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 137")</v>
       </c>
     </row>
     <row r="138" ht="14.25">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B138">
         <v>138</v>
       </c>
       <c r="C138" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A138:B138,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 138")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 138")</v>
       </c>
     </row>
     <row r="139" ht="14.25">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B139">
         <v>139</v>
       </c>
       <c r="C139" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A139:B139,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 139")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 139")</v>
       </c>
     </row>
     <row r="140" ht="14.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B140">
         <v>140</v>
       </c>
       <c r="C140" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A140:B140,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 140")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 140")</v>
       </c>
     </row>
     <row r="141" ht="14.25">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B141">
         <v>141</v>
       </c>
       <c r="C141" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A141:B141,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 141")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 141")</v>
       </c>
     </row>
     <row r="142" ht="14.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B142">
         <v>142</v>
       </c>
       <c r="C142" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A142:B142,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 142")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 142")</v>
       </c>
     </row>
     <row r="143" ht="14.25">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B143">
         <v>143</v>
       </c>
       <c r="C143" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A143:B143,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 143")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 143")</v>
       </c>
     </row>
     <row r="144" ht="14.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B144">
         <v>144</v>
       </c>
       <c r="C144" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A144:B144,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 144")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 144")</v>
       </c>
     </row>
     <row r="145" ht="14.25">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B145">
         <v>145</v>
       </c>
       <c r="C145" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A145:B145,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 145")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 145")</v>
       </c>
     </row>
     <row r="146" ht="14.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B146">
         <v>146</v>
       </c>
       <c r="C146" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A146:B146,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 146")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 146")</v>
       </c>
     </row>
     <row r="147" ht="14.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B147">
         <v>147</v>
       </c>
       <c r="C147" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A147:B147,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 147")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 147")</v>
       </c>
     </row>
     <row r="148" ht="14.25">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B148">
         <v>148</v>
       </c>
       <c r="C148" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A148:B148,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 148")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 148")</v>
       </c>
     </row>
     <row r="149" ht="14.25">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B149">
         <v>149</v>
       </c>
       <c r="C149" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A149:B149,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 149")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 149")</v>
       </c>
     </row>
     <row r="150" ht="14.25">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B150">
         <v>150</v>
       </c>
       <c r="C150" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A150:B150,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 150")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 150")</v>
       </c>
     </row>
     <row r="151" ht="14.25">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B151">
         <v>151</v>
       </c>
       <c r="C151" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A151:B151,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 151")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 151")</v>
       </c>
     </row>
     <row r="152" ht="14.25">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B152">
         <v>152</v>
       </c>
       <c r="C152" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A152:B152,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 152")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 152")</v>
       </c>
     </row>
     <row r="153" ht="14.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B153">
         <v>153</v>
       </c>
       <c r="C153" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A153:B153,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 153")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 153")</v>
       </c>
     </row>
     <row r="154" ht="14.25">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B154">
         <v>154</v>
       </c>
       <c r="C154" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A154:B154,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 154")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 154")</v>
       </c>
     </row>
     <row r="155" ht="14.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B155">
         <v>155</v>
       </c>
       <c r="C155" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A155:B155,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 155")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 155")</v>
       </c>
     </row>
     <row r="156" ht="14.25">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B156">
         <v>156</v>
       </c>
       <c r="C156" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A156:B156,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 156")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 156")</v>
       </c>
     </row>
     <row r="157" ht="14.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B157">
         <v>157</v>
       </c>
       <c r="C157" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A157:B157,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 157")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 157")</v>
       </c>
     </row>
     <row r="158" ht="14.25">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B158">
         <v>158</v>
       </c>
       <c r="C158" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A158:B158,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 158")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 158")</v>
       </c>
     </row>
     <row r="159" ht="14.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B159">
         <v>159</v>
       </c>
       <c r="C159" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A159:B159,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 159")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 159")</v>
       </c>
     </row>
     <row r="160" ht="14.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B160">
         <v>160</v>
       </c>
       <c r="C160" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A160:B160,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 160")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 160")</v>
       </c>
     </row>
     <row r="161" ht="14.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B161">
         <v>161</v>
       </c>
       <c r="C161" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A161:B161,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 161")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 161")</v>
       </c>
     </row>
     <row r="162" ht="14.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B162">
         <v>162</v>
       </c>
       <c r="C162" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A162:B162,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 162")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 162")</v>
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B163">
         <v>163</v>
       </c>
       <c r="C163" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A163:B163,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 163")</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 163")</v>
       </c>
     </row>
     <row r="164" ht="14.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B164">
         <v>164</v>
       </c>
       <c r="C164" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A164:B164,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 164")</v>
+        <f t="shared" ref="C164:C227" si="4">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A164:B164,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 164")</v>
       </c>
     </row>
     <row r="165" ht="14.25">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B165">
         <v>165</v>
       </c>
       <c r="C165" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A165:B165,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 165")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 165")</v>
       </c>
     </row>
     <row r="166" ht="14.25">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B166">
         <v>166</v>
       </c>
       <c r="C166" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A166:B166,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 166")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 166")</v>
       </c>
     </row>
     <row r="167" ht="14.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B167">
         <v>167</v>
       </c>
       <c r="C167" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A167:B167,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 167")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 167")</v>
       </c>
     </row>
     <row r="168" ht="14.25">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B168">
         <v>168</v>
       </c>
       <c r="C168" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A168:B168,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 168")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 168")</v>
       </c>
     </row>
     <row r="169" ht="14.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B169">
         <v>169</v>
       </c>
       <c r="C169" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A169:B169,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 169")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 169")</v>
       </c>
     </row>
     <row r="170" ht="14.25">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B170">
         <v>170</v>
       </c>
       <c r="C170" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A170:B170,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 170")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 170")</v>
       </c>
     </row>
     <row r="171" ht="14.25">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B171">
         <v>171</v>
       </c>
       <c r="C171" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A171:B171,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 171")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 171")</v>
       </c>
     </row>
     <row r="172" ht="14.25">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B172">
         <v>172</v>
       </c>
       <c r="C172" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A172:B172,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 172")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 172")</v>
       </c>
     </row>
     <row r="173" ht="14.25">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B173">
         <v>173</v>
       </c>
       <c r="C173" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A173:B173,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 173")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 173")</v>
       </c>
     </row>
     <row r="174" ht="14.25">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B174">
         <v>174</v>
       </c>
       <c r="C174" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A174:B174,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 174")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 174")</v>
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B175">
         <v>175</v>
       </c>
       <c r="C175" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A175:B175,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 175")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 175")</v>
       </c>
     </row>
     <row r="176" ht="14.25">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B176">
         <v>176</v>
       </c>
       <c r="C176" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A176:B176,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 176")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 176")</v>
       </c>
     </row>
     <row r="177" ht="14.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B177">
         <v>177</v>
       </c>
       <c r="C177" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A177:B177,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 177")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 177")</v>
       </c>
     </row>
     <row r="178" ht="14.25">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B178">
         <v>178</v>
       </c>
       <c r="C178" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A178:B178,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 178")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 178")</v>
       </c>
     </row>
     <row r="179" ht="14.25">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B179">
         <v>179</v>
       </c>
       <c r="C179" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A179:B179,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 179")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 179")</v>
       </c>
     </row>
     <row r="180" ht="14.25">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B180">
         <v>180</v>
       </c>
       <c r="C180" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A180:B180,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 180")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 180")</v>
       </c>
     </row>
     <row r="181" ht="14.25">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B181">
         <v>181</v>
       </c>
       <c r="C181" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A181:B181,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 181")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 181")</v>
       </c>
     </row>
     <row r="182" ht="14.25">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B182">
         <v>182</v>
       </c>
       <c r="C182" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A182:B182,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 182")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 182")</v>
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B183">
         <v>183</v>
       </c>
       <c r="C183" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A183:B183,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 183")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 183")</v>
       </c>
     </row>
     <row r="184" ht="14.25">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B184">
         <v>184</v>
       </c>
       <c r="C184" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A184:B184,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 184")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 184")</v>
       </c>
     </row>
     <row r="185" ht="14.25">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B185">
         <v>185</v>
       </c>
       <c r="C185" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A185:B185,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 185")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 185")</v>
       </c>
     </row>
     <row r="186" ht="14.25">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B186">
         <v>186</v>
       </c>
       <c r="C186" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A186:B186,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 186")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 186")</v>
       </c>
     </row>
     <row r="187" ht="14.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B187">
         <v>187</v>
       </c>
       <c r="C187" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A187:B187,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 187")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 187")</v>
       </c>
     </row>
     <row r="188" ht="14.25">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B188">
         <v>188</v>
       </c>
       <c r="C188" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A188:B188,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 188")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 188")</v>
       </c>
     </row>
     <row r="189" ht="14.25">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B189">
         <v>189</v>
       </c>
       <c r="C189" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A189:B189,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 189")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 189")</v>
       </c>
     </row>
     <row r="190" ht="14.25">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B190">
         <v>190</v>
       </c>
       <c r="C190" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A190:B190,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 190")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 190")</v>
       </c>
     </row>
     <row r="191" ht="14.25">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B191">
         <v>191</v>
       </c>
       <c r="C191" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A191:B191,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 191")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 191")</v>
       </c>
     </row>
     <row r="192" ht="14.25">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B192">
         <v>192</v>
       </c>
       <c r="C192" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A192:B192,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 192")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 192")</v>
       </c>
     </row>
     <row r="193" ht="14.25">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B193">
         <v>193</v>
       </c>
       <c r="C193" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A193:B193,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 193")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 193")</v>
       </c>
     </row>
     <row r="194" ht="14.25">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B194">
         <v>194</v>
       </c>
       <c r="C194" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A194:B194,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 194")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 194")</v>
       </c>
     </row>
     <row r="195" ht="14.25">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B195">
         <v>195</v>
       </c>
       <c r="C195" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A195:B195,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 195")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 195")</v>
       </c>
     </row>
     <row r="196" ht="14.25">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B196">
         <v>196</v>
       </c>
       <c r="C196" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A196:B196,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 196")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 196")</v>
       </c>
     </row>
     <row r="197" ht="14.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B197">
         <v>197</v>
       </c>
       <c r="C197" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A197:B197,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 197")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 197")</v>
       </c>
     </row>
     <row r="198" ht="14.25">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B198">
         <v>198</v>
       </c>
       <c r="C198" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A198:B198,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 198")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 198")</v>
       </c>
     </row>
     <row r="199" ht="14.25">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B199">
         <v>199</v>
       </c>
       <c r="C199" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A199:B199,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 199")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 199")</v>
       </c>
     </row>
     <row r="200" ht="14.25">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B200">
         <v>200</v>
       </c>
       <c r="C200" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A200:B200,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 200")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 200")</v>
       </c>
     </row>
     <row r="201" ht="14.25">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B201">
         <v>201</v>
       </c>
       <c r="C201" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A201:B201,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 201")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 201")</v>
       </c>
     </row>
     <row r="202" ht="14.25">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B202">
         <v>202</v>
       </c>
       <c r="C202" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A202:B202,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 202")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 202")</v>
       </c>
     </row>
     <row r="203" ht="14.25">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B203">
         <v>203</v>
       </c>
       <c r="C203" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A203:B203,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 203")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 203")</v>
       </c>
     </row>
     <row r="204" ht="14.25">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B204">
         <v>204</v>
       </c>
       <c r="C204" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A204:B204,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 204")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 204")</v>
       </c>
     </row>
     <row r="205" ht="14.25">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B205">
         <v>205</v>
       </c>
       <c r="C205" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A205:B205,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 205")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 205")</v>
       </c>
     </row>
     <row r="206" ht="14.25">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B206">
         <v>206</v>
       </c>
       <c r="C206" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A206:B206,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 206")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 206")</v>
       </c>
     </row>
     <row r="207" ht="14.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B207">
         <v>207</v>
       </c>
       <c r="C207" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A207:B207,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 207")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 207")</v>
       </c>
     </row>
     <row r="208" ht="14.25">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B208">
         <v>208</v>
       </c>
       <c r="C208" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A208:B208,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 208")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 208")</v>
       </c>
     </row>
     <row r="209" ht="14.25">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B209">
         <v>209</v>
       </c>
       <c r="C209" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A209:B209,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 209")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 209")</v>
       </c>
     </row>
     <row r="210" ht="14.25">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B210">
         <v>210</v>
       </c>
       <c r="C210" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A210:B210,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 210")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 210")</v>
       </c>
     </row>
     <row r="211" ht="14.25">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B211">
         <v>211</v>
       </c>
       <c r="C211" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A211:B211,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 211")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 211")</v>
       </c>
     </row>
     <row r="212" ht="14.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B212">
         <v>212</v>
       </c>
       <c r="C212" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A212:B212,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 212")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 212")</v>
       </c>
     </row>
     <row r="213" ht="14.25">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B213">
         <v>213</v>
       </c>
       <c r="C213" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A213:B213,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 213")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 213")</v>
       </c>
     </row>
     <row r="214" ht="14.25">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B214">
         <v>214</v>
       </c>
       <c r="C214" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A214:B214,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 214")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 214")</v>
       </c>
     </row>
     <row r="215" ht="14.25">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B215">
         <v>215</v>
       </c>
       <c r="C215" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A215:B215,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 215")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 215")</v>
       </c>
     </row>
     <row r="216" ht="14.25">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B216">
         <v>216</v>
       </c>
       <c r="C216" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A216:B216,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 216")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 216")</v>
       </c>
     </row>
     <row r="217" ht="14.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B217">
         <v>217</v>
       </c>
       <c r="C217" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A217:B217,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 217")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 217")</v>
       </c>
     </row>
     <row r="218" ht="14.25">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B218">
         <v>218</v>
       </c>
       <c r="C218" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A218:B218,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 218")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 218")</v>
       </c>
     </row>
     <row r="219" ht="14.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B219">
         <v>219</v>
       </c>
       <c r="C219" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A219:B219,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 219")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 219")</v>
       </c>
     </row>
     <row r="220" ht="14.25">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B220">
         <v>220</v>
       </c>
       <c r="C220" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A220:B220,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 220")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 220")</v>
       </c>
     </row>
     <row r="221" ht="14.25">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B221">
         <v>221</v>
       </c>
       <c r="C221" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A221:B221,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 221")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 221")</v>
       </c>
     </row>
     <row r="222" ht="14.25">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B222">
         <v>222</v>
       </c>
       <c r="C222" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A222:B222,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 222")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 222")</v>
       </c>
     </row>
     <row r="223" ht="14.25">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B223">
         <v>223</v>
       </c>
       <c r="C223" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A223:B223,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 223")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 223")</v>
       </c>
     </row>
     <row r="224" ht="14.25">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B224">
         <v>224</v>
       </c>
       <c r="C224" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A224:B224,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 224")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 224")</v>
       </c>
     </row>
     <row r="225" ht="14.25">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B225">
         <v>225</v>
       </c>
       <c r="C225" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A225:B225,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 225")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 225")</v>
       </c>
     </row>
     <row r="226" ht="14.25">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B226">
         <v>226</v>
       </c>
       <c r="C226" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A226:B226,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 226")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 226")</v>
       </c>
     </row>
     <row r="227" ht="14.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B227">
         <v>227</v>
       </c>
       <c r="C227" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A227:B227,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 227")</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 227")</v>
       </c>
     </row>
     <row r="228" ht="14.25">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B228">
         <v>228</v>
       </c>
       <c r="C228" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A228:B228,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 228")</v>
+        <f t="shared" ref="C228:C291" si="5">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A228:B228,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 228")</v>
       </c>
     </row>
     <row r="229" ht="14.25">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B229">
         <v>229</v>
       </c>
       <c r="C229" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A229:B229,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 229")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 229")</v>
       </c>
     </row>
     <row r="230" ht="14.25">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B230">
         <v>230</v>
       </c>
       <c r="C230" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A230:B230,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 230")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 230")</v>
       </c>
     </row>
     <row r="231" ht="14.25">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B231">
         <v>231</v>
       </c>
       <c r="C231" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A231:B231,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 231")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 231")</v>
       </c>
     </row>
     <row r="232" ht="14.25">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B232">
         <v>232</v>
       </c>
       <c r="C232" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A232:B232,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 232")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 232")</v>
       </c>
     </row>
     <row r="233" ht="14.25">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B233">
         <v>233</v>
       </c>
       <c r="C233" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A233:B233,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 233")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 233")</v>
       </c>
     </row>
     <row r="234" ht="14.25">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B234">
         <v>234</v>
       </c>
       <c r="C234" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A234:B234,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 234")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 234")</v>
       </c>
     </row>
     <row r="235" ht="14.25">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B235">
         <v>235</v>
       </c>
       <c r="C235" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A235:B235,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 235")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 235")</v>
       </c>
     </row>
     <row r="236" ht="14.25">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B236">
         <v>236</v>
       </c>
       <c r="C236" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A236:B236,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 236")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 236")</v>
       </c>
     </row>
     <row r="237" ht="14.25">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B237">
         <v>237</v>
       </c>
       <c r="C237" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A237:B237,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 237")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 237")</v>
       </c>
     </row>
     <row r="238" ht="14.25">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B238">
         <v>238</v>
       </c>
       <c r="C238" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A238:B238,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 238")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 238")</v>
       </c>
     </row>
     <row r="239" ht="14.25">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B239">
         <v>239</v>
       </c>
       <c r="C239" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A239:B239,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 239")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 239")</v>
       </c>
     </row>
     <row r="240" ht="14.25">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B240">
         <v>240</v>
       </c>
       <c r="C240" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A240:B240,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 240")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 240")</v>
       </c>
     </row>
     <row r="241" ht="14.25">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B241">
         <v>241</v>
       </c>
       <c r="C241" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A241:B241,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 241")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 241")</v>
       </c>
     </row>
     <row r="242" ht="14.25">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B242">
         <v>242</v>
       </c>
       <c r="C242" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A242:B242,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 242")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 242")</v>
       </c>
     </row>
     <row r="243" ht="14.25">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B243">
         <v>243</v>
       </c>
       <c r="C243" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A243:B243,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 243")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 243")</v>
       </c>
     </row>
     <row r="244" ht="14.25">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B244">
         <v>244</v>
       </c>
       <c r="C244" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A244:B244,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 244")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 244")</v>
       </c>
     </row>
     <row r="245" ht="14.25">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B245">
         <v>245</v>
       </c>
       <c r="C245" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A245:B245,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 245")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 245")</v>
       </c>
     </row>
     <row r="246" ht="14.25">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B246">
         <v>246</v>
       </c>
       <c r="C246" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A246:B246,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 246")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 246")</v>
       </c>
     </row>
     <row r="247" ht="14.25">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B247">
         <v>247</v>
       </c>
       <c r="C247" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A247:B247,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 247")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 247")</v>
       </c>
     </row>
     <row r="248" ht="14.25">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B248">
         <v>248</v>
       </c>
       <c r="C248" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A248:B248,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 248")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 248")</v>
       </c>
     </row>
     <row r="249" ht="14.25">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B249">
         <v>249</v>
       </c>
       <c r="C249" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A249:B249,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 249")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 249")</v>
       </c>
     </row>
     <row r="250" ht="14.25">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B250">
         <v>250</v>
       </c>
       <c r="C250" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A250:B250,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 250")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 250")</v>
       </c>
     </row>
     <row r="251" ht="14.25">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B251">
         <v>251</v>
       </c>
       <c r="C251" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A251:B251,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 251")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 251")</v>
       </c>
     </row>
     <row r="252" ht="14.25">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B252">
         <v>252</v>
       </c>
       <c r="C252" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A252:B252,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 252")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 252")</v>
       </c>
     </row>
     <row r="253" ht="14.25">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B253">
         <v>253</v>
       </c>
       <c r="C253" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A253:B253,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 253")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 253")</v>
       </c>
     </row>
     <row r="254" ht="14.25">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B254">
         <v>254</v>
       </c>
       <c r="C254" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A254:B254,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 254")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 254")</v>
       </c>
     </row>
     <row r="255" ht="14.25">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B255">
         <v>255</v>
       </c>
       <c r="C255" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A255:B255,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 255")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 255")</v>
       </c>
     </row>
     <row r="256" ht="14.25">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B256">
         <v>256</v>
       </c>
       <c r="C256" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A256:B256,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 256")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 256")</v>
       </c>
     </row>
     <row r="257" ht="14.25">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B257">
         <v>257</v>
       </c>
       <c r="C257" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A257:B257,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 257")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 257")</v>
       </c>
     </row>
     <row r="258" ht="14.25">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B258">
         <v>258</v>
       </c>
       <c r="C258" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A258:B258,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 258")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 258")</v>
       </c>
     </row>
     <row r="259" ht="14.25">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B259">
         <v>259</v>
       </c>
       <c r="C259" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A259:B259,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 259")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 259")</v>
       </c>
     </row>
     <row r="260" ht="14.25">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B260">
         <v>260</v>
       </c>
       <c r="C260" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A260:B260,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 260")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 260")</v>
       </c>
     </row>
     <row r="261" ht="14.25">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B261">
         <v>261</v>
       </c>
       <c r="C261" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A261:B261,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 261")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 261")</v>
       </c>
     </row>
     <row r="262" ht="14.25">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B262">
         <v>262</v>
       </c>
       <c r="C262" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A262:B262,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 262")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 262")</v>
       </c>
     </row>
     <row r="263" ht="14.25">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B263">
         <v>263</v>
       </c>
       <c r="C263" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A263:B263,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 263")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 263")</v>
       </c>
     </row>
     <row r="264" ht="14.25">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B264">
         <v>264</v>
       </c>
       <c r="C264" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A264:B264,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 264")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 264")</v>
       </c>
     </row>
     <row r="265" ht="14.25">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B265">
         <v>265</v>
       </c>
       <c r="C265" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A265:B265,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 265")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 265")</v>
       </c>
     </row>
     <row r="266" ht="14.25">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B266">
         <v>266</v>
       </c>
       <c r="C266" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A266:B266,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 266")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 266")</v>
       </c>
     </row>
     <row r="267" ht="14.25">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B267">
         <v>267</v>
       </c>
       <c r="C267" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A267:B267,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 267")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 267")</v>
       </c>
     </row>
     <row r="268" ht="14.25">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B268">
         <v>268</v>
       </c>
       <c r="C268" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A268:B268,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 268")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 268")</v>
       </c>
     </row>
     <row r="269" ht="14.25">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B269">
         <v>269</v>
       </c>
       <c r="C269" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A269:B269,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 269")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 269")</v>
       </c>
     </row>
     <row r="270" ht="14.25">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B270">
         <v>270</v>
       </c>
       <c r="C270" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A270:B270,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 270")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 270")</v>
       </c>
     </row>
     <row r="271" ht="14.25">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B271">
         <v>271</v>
       </c>
       <c r="C271" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A271:B271,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 271")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 271")</v>
       </c>
     </row>
     <row r="272" ht="14.25">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B272">
         <v>272</v>
       </c>
       <c r="C272" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A272:B272,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 272")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 272")</v>
       </c>
     </row>
     <row r="273" ht="14.25">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B273">
         <v>273</v>
       </c>
       <c r="C273" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A273:B273,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 273")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 273")</v>
       </c>
     </row>
     <row r="274" ht="14.25">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B274">
         <v>274</v>
       </c>
       <c r="C274" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A274:B274,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 274")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 274")</v>
       </c>
     </row>
     <row r="275" ht="14.25">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B275">
         <v>275</v>
       </c>
       <c r="C275" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A275:B275,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 275")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 275")</v>
       </c>
     </row>
     <row r="276" ht="14.25">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B276">
         <v>276</v>
       </c>
       <c r="C276" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A276:B276,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 276")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 276")</v>
       </c>
     </row>
     <row r="277" ht="14.25">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B277">
         <v>277</v>
       </c>
       <c r="C277" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A277:B277,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 277")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 277")</v>
       </c>
     </row>
     <row r="278" ht="14.25">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B278">
         <v>278</v>
       </c>
       <c r="C278" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A278:B278,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 278")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 278")</v>
       </c>
     </row>
     <row r="279" ht="14.25">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B279">
         <v>279</v>
       </c>
       <c r="C279" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A279:B279,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 279")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 279")</v>
       </c>
     </row>
     <row r="280" ht="14.25">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B280">
         <v>280</v>
       </c>
       <c r="C280" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A280:B280,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 280")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 280")</v>
       </c>
     </row>
     <row r="281" ht="14.25">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B281">
         <v>281</v>
       </c>
       <c r="C281" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A281:B281,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 281")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 281")</v>
       </c>
     </row>
     <row r="282" ht="14.25">
-      <c r="A282" s="4" t="s">
+      <c r="A282" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B282">
         <v>282</v>
       </c>
       <c r="C282" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A282:B282,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 282")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 282")</v>
       </c>
     </row>
     <row r="283" ht="14.25">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B283">
         <v>283</v>
       </c>
       <c r="C283" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A283:B283,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 283")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 283")</v>
       </c>
     </row>
     <row r="284" ht="14.25">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B284">
         <v>284</v>
       </c>
       <c r="C284" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A284:B284,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 284")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 284")</v>
       </c>
     </row>
     <row r="285" ht="14.25">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B285">
         <v>285</v>
       </c>
       <c r="C285" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A285:B285,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 285")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 285")</v>
       </c>
     </row>
     <row r="286" ht="14.25">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B286">
         <v>286</v>
       </c>
       <c r="C286" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A286:B286,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 286")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 286")</v>
       </c>
     </row>
     <row r="287" ht="14.25">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B287">
         <v>287</v>
       </c>
       <c r="C287" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A287:B287,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 287")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 287")</v>
       </c>
     </row>
     <row r="288" ht="14.25">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B288">
         <v>288</v>
       </c>
       <c r="C288" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A288:B288,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 288")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 288")</v>
       </c>
     </row>
     <row r="289" ht="14.25">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B289">
         <v>289</v>
       </c>
       <c r="C289" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A289:B289,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 289")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 289")</v>
       </c>
     </row>
     <row r="290" ht="14.25">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B290">
         <v>290</v>
       </c>
       <c r="C290" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A290:B290,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 290")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 290")</v>
       </c>
     </row>
     <row r="291" ht="14.25">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B291">
         <v>291</v>
       </c>
       <c r="C291" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A291:B291,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 291")</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 291")</v>
       </c>
     </row>
     <row r="292" ht="14.25">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B292">
         <v>292</v>
       </c>
       <c r="C292" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A292:B292,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 292")</v>
+        <f t="shared" ref="C292:C355" si="6">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A292:B292,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 292")</v>
       </c>
     </row>
     <row r="293" ht="14.25">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B293">
         <v>293</v>
       </c>
       <c r="C293" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A293:B293,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 293")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 293")</v>
       </c>
     </row>
     <row r="294" ht="14.25">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B294">
         <v>294</v>
       </c>
       <c r="C294" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A294:B294,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 294")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 294")</v>
       </c>
     </row>
     <row r="295" ht="14.25">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B295">
         <v>295</v>
       </c>
       <c r="C295" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A295:B295,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 295")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 295")</v>
       </c>
     </row>
     <row r="296" ht="14.25">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B296">
         <v>296</v>
       </c>
       <c r="C296" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A296:B296,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 296")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 296")</v>
       </c>
     </row>
     <row r="297" ht="14.25">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B297">
         <v>297</v>
       </c>
       <c r="C297" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A297:B297,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 297")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 297")</v>
       </c>
     </row>
     <row r="298" ht="14.25">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B298">
         <v>298</v>
       </c>
       <c r="C298" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A298:B298,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 298")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 298")</v>
       </c>
     </row>
     <row r="299" ht="14.25">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B299">
         <v>299</v>
       </c>
       <c r="C299" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A299:B299,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 299")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 299")</v>
       </c>
     </row>
     <row r="300" ht="14.25">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B300">
         <v>300</v>
       </c>
       <c r="C300" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A300:B300,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 300")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 300")</v>
       </c>
     </row>
     <row r="301" ht="14.25">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B301">
         <v>301</v>
       </c>
       <c r="C301" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A301:B301,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 301")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 301")</v>
       </c>
     </row>
     <row r="302" ht="14.25">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B302">
         <v>302</v>
       </c>
       <c r="C302" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A302:B302,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 302")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 302")</v>
       </c>
     </row>
     <row r="303" ht="14.25">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B303">
         <v>303</v>
       </c>
       <c r="C303" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A303:B303,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 303")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 303")</v>
       </c>
     </row>
     <row r="304" ht="14.25">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B304">
         <v>304</v>
       </c>
       <c r="C304" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A304:B304,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 304")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 304")</v>
       </c>
     </row>
     <row r="305" ht="14.25">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B305">
         <v>305</v>
       </c>
       <c r="C305" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A305:B305,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 305")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 305")</v>
       </c>
     </row>
     <row r="306" ht="14.25">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B306">
         <v>306</v>
       </c>
       <c r="C306" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A306:B306,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 306")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 306")</v>
       </c>
     </row>
     <row r="307" ht="14.25">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B307">
         <v>307</v>
       </c>
       <c r="C307" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A307:B307,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 307")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 307")</v>
       </c>
     </row>
     <row r="308" ht="14.25">
-      <c r="A308" s="4" t="s">
+      <c r="A308" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B308">
         <v>308</v>
       </c>
       <c r="C308" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A308:B308,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 308")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 308")</v>
       </c>
     </row>
     <row r="309" ht="14.25">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B309">
         <v>309</v>
       </c>
       <c r="C309" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A309:B309,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 309")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 309")</v>
       </c>
     </row>
     <row r="310" ht="14.25">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B310">
         <v>310</v>
       </c>
       <c r="C310" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A310:B310,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 310")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 310")</v>
       </c>
     </row>
     <row r="311" ht="14.25">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B311">
         <v>311</v>
       </c>
       <c r="C311" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A311:B311,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 311")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 311")</v>
       </c>
     </row>
     <row r="312" ht="14.25">
-      <c r="A312" s="4" t="s">
+      <c r="A312" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B312">
         <v>312</v>
       </c>
       <c r="C312" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A312:B312,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 312")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 312")</v>
       </c>
     </row>
     <row r="313" ht="14.25">
-      <c r="A313" s="4" t="s">
+      <c r="A313" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B313">
         <v>313</v>
       </c>
       <c r="C313" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A313:B313,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 313")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 313")</v>
       </c>
     </row>
     <row r="314" ht="14.25">
-      <c r="A314" s="4" t="s">
+      <c r="A314" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B314">
         <v>314</v>
       </c>
       <c r="C314" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A314:B314,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 314")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 314")</v>
       </c>
     </row>
     <row r="315" ht="14.25">
-      <c r="A315" s="4" t="s">
+      <c r="A315" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B315">
         <v>315</v>
       </c>
       <c r="C315" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A315:B315,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 315")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 315")</v>
       </c>
     </row>
     <row r="316" ht="14.25">
-      <c r="A316" s="4" t="s">
+      <c r="A316" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B316">
         <v>316</v>
       </c>
       <c r="C316" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A316:B316,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 316")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 316")</v>
       </c>
     </row>
     <row r="317" ht="14.25">
-      <c r="A317" s="4" t="s">
+      <c r="A317" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B317">
         <v>317</v>
       </c>
       <c r="C317" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A317:B317,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 317")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 317")</v>
       </c>
     </row>
     <row r="318" ht="14.25">
-      <c r="A318" s="4" t="s">
+      <c r="A318" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B318">
         <v>318</v>
       </c>
       <c r="C318" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A318:B318,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 318")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 318")</v>
       </c>
     </row>
     <row r="319" ht="14.25">
-      <c r="A319" s="4" t="s">
+      <c r="A319" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B319">
         <v>319</v>
       </c>
       <c r="C319" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A319:B319,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 319")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 319")</v>
       </c>
     </row>
     <row r="320" ht="14.25">
-      <c r="A320" s="4" t="s">
+      <c r="A320" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B320">
         <v>320</v>
       </c>
       <c r="C320" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A320:B320,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 320")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 320")</v>
       </c>
     </row>
     <row r="321" ht="14.25">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B321">
         <v>321</v>
       </c>
       <c r="C321" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A321:B321,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 321")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 321")</v>
       </c>
     </row>
     <row r="322" ht="14.25">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B322">
         <v>322</v>
       </c>
       <c r="C322" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A322:B322,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 322")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 322")</v>
       </c>
     </row>
     <row r="323" ht="14.25">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B323">
         <v>323</v>
       </c>
       <c r="C323" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A323:B323,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 323")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 323")</v>
       </c>
     </row>
     <row r="324" ht="14.25">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B324">
         <v>324</v>
       </c>
       <c r="C324" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A324:B324,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 324")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 324")</v>
       </c>
     </row>
     <row r="325" ht="14.25">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B325">
         <v>325</v>
       </c>
       <c r="C325" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A325:B325,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 325")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 325")</v>
       </c>
     </row>
     <row r="326" ht="14.25">
-      <c r="A326" s="4" t="s">
+      <c r="A326" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B326">
         <v>326</v>
       </c>
       <c r="C326" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A326:B326,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 326")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 326")</v>
       </c>
     </row>
     <row r="327" ht="14.25">
-      <c r="A327" s="4" t="s">
+      <c r="A327" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B327">
         <v>327</v>
       </c>
       <c r="C327" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A327:B327,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 327")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 327")</v>
       </c>
     </row>
     <row r="328" ht="14.25">
-      <c r="A328" s="4" t="s">
+      <c r="A328" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B328">
         <v>328</v>
       </c>
       <c r="C328" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A328:B328,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 328")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 328")</v>
       </c>
     </row>
     <row r="329" ht="14.25">
-      <c r="A329" s="4" t="s">
+      <c r="A329" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B329">
         <v>329</v>
       </c>
       <c r="C329" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A329:B329,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 329")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 329")</v>
       </c>
     </row>
     <row r="330" ht="14.25">
-      <c r="A330" s="4" t="s">
+      <c r="A330" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B330">
         <v>330</v>
       </c>
       <c r="C330" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A330:B330,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 330")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 330")</v>
       </c>
     </row>
     <row r="331" ht="14.25">
-      <c r="A331" s="4" t="s">
+      <c r="A331" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B331">
         <v>331</v>
       </c>
       <c r="C331" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A331:B331,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 331")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 331")</v>
       </c>
     </row>
     <row r="332" ht="14.25">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B332">
         <v>332</v>
       </c>
       <c r="C332" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A332:B332,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 332")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 332")</v>
       </c>
     </row>
     <row r="333" ht="14.25">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B333">
         <v>333</v>
       </c>
       <c r="C333" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A333:B333,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 333")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 333")</v>
       </c>
     </row>
     <row r="334" ht="14.25">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B334">
         <v>334</v>
       </c>
       <c r="C334" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A334:B334,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 334")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 334")</v>
       </c>
     </row>
     <row r="335" ht="14.25">
-      <c r="A335" s="4" t="s">
+      <c r="A335" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B335">
         <v>335</v>
       </c>
       <c r="C335" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A335:B335,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 335")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 335")</v>
       </c>
     </row>
     <row r="336" ht="14.25">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B336">
         <v>336</v>
       </c>
       <c r="C336" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A336:B336,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 336")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 336")</v>
       </c>
     </row>
     <row r="337" ht="14.25">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B337">
         <v>337</v>
       </c>
       <c r="C337" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A337:B337,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 337")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 337")</v>
       </c>
     </row>
     <row r="338" ht="14.25">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B338">
         <v>338</v>
       </c>
       <c r="C338" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A338:B338,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 338")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 338")</v>
       </c>
     </row>
     <row r="339" ht="14.25">
-      <c r="A339" s="4" t="s">
+      <c r="A339" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B339">
         <v>339</v>
       </c>
       <c r="C339" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A339:B339,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 339")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 339")</v>
       </c>
     </row>
     <row r="340" ht="14.25">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B340">
         <v>340</v>
       </c>
       <c r="C340" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A340:B340,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 340")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 340")</v>
       </c>
     </row>
     <row r="341" ht="14.25">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B341">
         <v>341</v>
       </c>
       <c r="C341" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A341:B341,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 341")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 341")</v>
       </c>
     </row>
     <row r="342" ht="14.25">
-      <c r="A342" s="4" t="s">
+      <c r="A342" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B342">
         <v>342</v>
       </c>
       <c r="C342" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A342:B342,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 342")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 342")</v>
       </c>
     </row>
     <row r="343" ht="14.25">
-      <c r="A343" s="4" t="s">
+      <c r="A343" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B343">
         <v>343</v>
       </c>
       <c r="C343" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A343:B343,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 343")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 343")</v>
       </c>
     </row>
     <row r="344" ht="14.25">
-      <c r="A344" s="4" t="s">
+      <c r="A344" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B344">
         <v>344</v>
       </c>
       <c r="C344" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A344:B344,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 344")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 344")</v>
       </c>
     </row>
     <row r="345" ht="14.25">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B345">
         <v>345</v>
       </c>
       <c r="C345" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A345:B345,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 345")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 345")</v>
       </c>
     </row>
     <row r="346" ht="14.25">
-      <c r="A346" s="4" t="s">
+      <c r="A346" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B346">
         <v>346</v>
       </c>
       <c r="C346" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A346:B346,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 346")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 346")</v>
       </c>
     </row>
     <row r="347" ht="14.25">
-      <c r="A347" s="4" t="s">
+      <c r="A347" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B347">
         <v>347</v>
       </c>
       <c r="C347" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A347:B347,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 347")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 347")</v>
       </c>
     </row>
     <row r="348" ht="14.25">
-      <c r="A348" s="4" t="s">
+      <c r="A348" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B348">
         <v>348</v>
       </c>
       <c r="C348" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A348:B348,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 348")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 348")</v>
       </c>
     </row>
     <row r="349" ht="14.25">
-      <c r="A349" s="4" t="s">
+      <c r="A349" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B349">
         <v>349</v>
       </c>
       <c r="C349" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A349:B349,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 349")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 349")</v>
       </c>
     </row>
     <row r="350" ht="14.25">
-      <c r="A350" s="4" t="s">
+      <c r="A350" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B350">
         <v>350</v>
       </c>
       <c r="C350" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A350:B350,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 350")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 350")</v>
       </c>
     </row>
     <row r="351" ht="14.25">
-      <c r="A351" s="4" t="s">
+      <c r="A351" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B351">
         <v>351</v>
       </c>
       <c r="C351" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A351:B351,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 351")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 351")</v>
       </c>
     </row>
     <row r="352" ht="14.25">
-      <c r="A352" s="4" t="s">
+      <c r="A352" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B352">
         <v>352</v>
       </c>
       <c r="C352" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A352:B352,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 352")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 352")</v>
       </c>
     </row>
     <row r="353" ht="14.25">
-      <c r="A353" s="4" t="s">
+      <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B353">
         <v>353</v>
       </c>
       <c r="C353" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A353:B353,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 353")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 353")</v>
       </c>
     </row>
     <row r="354" ht="14.25">
-      <c r="A354" s="4" t="s">
+      <c r="A354" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B354">
         <v>354</v>
       </c>
       <c r="C354" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A354:B354,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 354")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 354")</v>
       </c>
     </row>
     <row r="355" ht="14.25">
-      <c r="A355" s="4" t="s">
+      <c r="A355" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B355">
         <v>355</v>
       </c>
       <c r="C355" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A355:B355,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 355")</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 355")</v>
       </c>
     </row>
     <row r="356" ht="14.25">
-      <c r="A356" s="4" t="s">
+      <c r="A356" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B356">
         <v>356</v>
       </c>
       <c r="C356" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A356:B356,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 356")</v>
+        <f t="shared" ref="C356:C419" si="7">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A356:B356,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 356")</v>
       </c>
     </row>
     <row r="357" ht="14.25">
-      <c r="A357" s="4" t="s">
+      <c r="A357" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B357">
         <v>357</v>
       </c>
       <c r="C357" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A357:B357,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 357")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 357")</v>
       </c>
     </row>
     <row r="358" ht="14.25">
-      <c r="A358" s="4" t="s">
+      <c r="A358" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B358">
         <v>358</v>
       </c>
       <c r="C358" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A358:B358,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 358")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 358")</v>
       </c>
     </row>
     <row r="359" ht="14.25">
-      <c r="A359" s="4" t="s">
+      <c r="A359" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B359">
         <v>359</v>
       </c>
       <c r="C359" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A359:B359,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 359")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 359")</v>
       </c>
     </row>
     <row r="360" ht="14.25">
-      <c r="A360" s="4" t="s">
+      <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B360">
         <v>360</v>
       </c>
       <c r="C360" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A360:B360,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 360")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 360")</v>
       </c>
     </row>
     <row r="361" ht="14.25">
-      <c r="A361" s="4" t="s">
+      <c r="A361" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B361">
         <v>361</v>
       </c>
       <c r="C361" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A361:B361,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 361")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 361")</v>
       </c>
     </row>
     <row r="362" ht="14.25">
-      <c r="A362" s="4" t="s">
+      <c r="A362" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B362">
         <v>362</v>
       </c>
       <c r="C362" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A362:B362,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 362")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 362")</v>
       </c>
     </row>
     <row r="363" ht="14.25">
-      <c r="A363" s="4" t="s">
+      <c r="A363" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B363">
         <v>363</v>
       </c>
       <c r="C363" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A363:B363,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 363")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 363")</v>
       </c>
     </row>
     <row r="364" ht="14.25">
-      <c r="A364" s="4" t="s">
+      <c r="A364" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B364">
         <v>364</v>
       </c>
       <c r="C364" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A364:B364,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 364")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 364")</v>
       </c>
     </row>
     <row r="365" ht="14.25">
-      <c r="A365" s="4" t="s">
+      <c r="A365" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B365">
         <v>365</v>
       </c>
       <c r="C365" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A365:B365,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 365")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 365")</v>
       </c>
     </row>
     <row r="366" ht="14.25">
-      <c r="A366" s="4" t="s">
+      <c r="A366" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B366">
         <v>366</v>
       </c>
       <c r="C366" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A366:B366,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 366")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 366")</v>
       </c>
     </row>
     <row r="367" ht="14.25">
-      <c r="A367" s="4" t="s">
+      <c r="A367" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B367">
         <v>367</v>
       </c>
       <c r="C367" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A367:B367,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 367")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 367")</v>
       </c>
     </row>
     <row r="368" ht="14.25">
-      <c r="A368" s="4" t="s">
+      <c r="A368" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B368">
         <v>368</v>
       </c>
       <c r="C368" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A368:B368,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 368")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 368")</v>
       </c>
     </row>
     <row r="369" ht="14.25">
-      <c r="A369" s="4" t="s">
+      <c r="A369" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B369">
         <v>369</v>
       </c>
       <c r="C369" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A369:B369,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 369")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 369")</v>
       </c>
     </row>
     <row r="370" ht="14.25">
-      <c r="A370" s="4" t="s">
+      <c r="A370" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B370">
         <v>370</v>
       </c>
       <c r="C370" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A370:B370,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 370")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 370")</v>
       </c>
     </row>
     <row r="371" ht="14.25">
-      <c r="A371" s="4" t="s">
+      <c r="A371" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B371">
         <v>371</v>
       </c>
       <c r="C371" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A371:B371,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 371")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 371")</v>
       </c>
     </row>
     <row r="372" ht="14.25">
-      <c r="A372" s="4" t="s">
+      <c r="A372" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B372">
         <v>372</v>
       </c>
       <c r="C372" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A372:B372,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 372")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 372")</v>
       </c>
     </row>
     <row r="373" ht="14.25">
-      <c r="A373" s="4" t="s">
+      <c r="A373" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B373">
         <v>373</v>
       </c>
       <c r="C373" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A373:B373,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 373")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 373")</v>
       </c>
     </row>
     <row r="374" ht="14.25">
-      <c r="A374" s="4" t="s">
+      <c r="A374" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B374">
         <v>374</v>
       </c>
       <c r="C374" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A374:B374,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 374")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 374")</v>
       </c>
     </row>
     <row r="375" ht="14.25">
-      <c r="A375" s="4" t="s">
+      <c r="A375" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B375">
         <v>375</v>
       </c>
       <c r="C375" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A375:B375,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 375")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 375")</v>
       </c>
     </row>
     <row r="376" ht="14.25">
-      <c r="A376" s="4" t="s">
+      <c r="A376" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B376">
         <v>376</v>
       </c>
       <c r="C376" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A376:B376,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 376")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 376")</v>
       </c>
     </row>
     <row r="377" ht="14.25">
-      <c r="A377" s="4" t="s">
+      <c r="A377" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B377">
         <v>377</v>
       </c>
       <c r="C377" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A377:B377,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 377")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 377")</v>
       </c>
     </row>
     <row r="378" ht="14.25">
-      <c r="A378" s="4" t="s">
+      <c r="A378" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B378">
         <v>378</v>
       </c>
       <c r="C378" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A378:B378,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 378")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 378")</v>
       </c>
     </row>
     <row r="379" ht="14.25">
-      <c r="A379" s="4" t="s">
+      <c r="A379" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B379">
         <v>379</v>
       </c>
       <c r="C379" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A379:B379,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 379")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 379")</v>
       </c>
     </row>
     <row r="380" ht="14.25">
-      <c r="A380" s="4" t="s">
+      <c r="A380" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B380">
         <v>380</v>
       </c>
       <c r="C380" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A380:B380,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 380")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 380")</v>
       </c>
     </row>
     <row r="381" ht="14.25">
-      <c r="A381" s="4" t="s">
+      <c r="A381" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B381">
         <v>381</v>
       </c>
       <c r="C381" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A381:B381,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 381")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 381")</v>
       </c>
     </row>
     <row r="382" ht="14.25">
-      <c r="A382" s="4" t="s">
+      <c r="A382" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B382">
         <v>382</v>
       </c>
       <c r="C382" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A382:B382,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 382")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 382")</v>
       </c>
     </row>
     <row r="383" ht="14.25">
-      <c r="A383" s="4" t="s">
+      <c r="A383" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B383">
         <v>383</v>
       </c>
       <c r="C383" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A383:B383,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 383")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 383")</v>
       </c>
     </row>
     <row r="384" ht="14.25">
-      <c r="A384" s="4" t="s">
+      <c r="A384" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B384">
         <v>384</v>
       </c>
       <c r="C384" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A384:B384,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 384")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 384")</v>
       </c>
     </row>
     <row r="385" ht="14.25">
-      <c r="A385" s="4" t="s">
+      <c r="A385" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B385">
         <v>385</v>
       </c>
       <c r="C385" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A385:B385,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 385")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 385")</v>
       </c>
     </row>
     <row r="386" ht="14.25">
-      <c r="A386" s="4" t="s">
+      <c r="A386" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B386">
         <v>386</v>
       </c>
       <c r="C386" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A386:B386,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 386")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 386")</v>
       </c>
     </row>
     <row r="387" ht="14.25">
-      <c r="A387" s="4" t="s">
+      <c r="A387" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B387">
         <v>387</v>
       </c>
       <c r="C387" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A387:B387,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 387")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 387")</v>
       </c>
     </row>
     <row r="388" ht="14.25">
-      <c r="A388" s="4" t="s">
+      <c r="A388" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B388">
         <v>388</v>
       </c>
       <c r="C388" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A388:B388,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 388")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 388")</v>
       </c>
     </row>
     <row r="389" ht="14.25">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B389">
         <v>389</v>
       </c>
       <c r="C389" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A389:B389,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 389")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 389")</v>
       </c>
     </row>
     <row r="390" ht="14.25">
-      <c r="A390" s="4" t="s">
+      <c r="A390" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B390">
         <v>390</v>
       </c>
       <c r="C390" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A390:B390,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 390")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 390")</v>
       </c>
     </row>
     <row r="391" ht="14.25">
-      <c r="A391" s="4" t="s">
+      <c r="A391" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B391">
         <v>391</v>
       </c>
       <c r="C391" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A391:B391,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 391")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 391")</v>
       </c>
     </row>
     <row r="392" ht="14.25">
-      <c r="A392" s="4" t="s">
+      <c r="A392" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B392">
         <v>392</v>
       </c>
       <c r="C392" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A392:B392,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 392")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 392")</v>
       </c>
     </row>
     <row r="393" ht="14.25">
-      <c r="A393" s="4" t="s">
+      <c r="A393" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B393">
         <v>393</v>
       </c>
       <c r="C393" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A393:B393,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 393")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 393")</v>
       </c>
     </row>
     <row r="394" ht="14.25">
-      <c r="A394" s="4" t="s">
+      <c r="A394" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B394">
         <v>394</v>
       </c>
       <c r="C394" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A394:B394,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 394")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 394")</v>
       </c>
     </row>
     <row r="395" ht="14.25">
-      <c r="A395" s="4" t="s">
+      <c r="A395" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B395">
         <v>395</v>
       </c>
       <c r="C395" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A395:B395,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 395")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 395")</v>
       </c>
     </row>
     <row r="396" ht="14.25">
-      <c r="A396" s="4" t="s">
+      <c r="A396" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B396">
         <v>396</v>
       </c>
       <c r="C396" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A396:B396,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 396")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 396")</v>
       </c>
     </row>
     <row r="397" ht="14.25">
-      <c r="A397" s="4" t="s">
+      <c r="A397" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B397">
         <v>397</v>
       </c>
       <c r="C397" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A397:B397,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 397")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 397")</v>
       </c>
     </row>
     <row r="398" ht="14.25">
-      <c r="A398" s="4" t="s">
+      <c r="A398" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B398">
         <v>398</v>
       </c>
       <c r="C398" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A398:B398,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 398")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 398")</v>
       </c>
     </row>
     <row r="399" ht="14.25">
-      <c r="A399" s="4" t="s">
+      <c r="A399" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B399">
         <v>399</v>
       </c>
       <c r="C399" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A399:B399,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 399")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 399")</v>
       </c>
     </row>
     <row r="400" ht="14.25">
-      <c r="A400" s="4" t="s">
+      <c r="A400" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B400">
         <v>400</v>
       </c>
       <c r="C400" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A400:B400,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 400")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 400")</v>
       </c>
     </row>
     <row r="401" ht="14.25">
-      <c r="A401" s="4" t="s">
+      <c r="A401" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B401">
         <v>401</v>
       </c>
       <c r="C401" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A401:B401,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 401")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 401")</v>
       </c>
     </row>
     <row r="402" ht="14.25">
-      <c r="A402" s="4" t="s">
+      <c r="A402" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B402">
         <v>402</v>
       </c>
       <c r="C402" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A402:B402,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 402")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 402")</v>
       </c>
     </row>
     <row r="403" ht="14.25">
-      <c r="A403" s="4" t="s">
+      <c r="A403" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B403">
         <v>403</v>
       </c>
       <c r="C403" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A403:B403,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 403")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 403")</v>
       </c>
     </row>
     <row r="404" ht="14.25">
-      <c r="A404" s="4" t="s">
+      <c r="A404" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B404">
         <v>404</v>
       </c>
       <c r="C404" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A404:B404,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 404")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 404")</v>
       </c>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="4" t="s">
+      <c r="A405" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B405">
         <v>405</v>
       </c>
       <c r="C405" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A405:B405,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 405")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 405")</v>
       </c>
     </row>
     <row r="406" ht="14.25">
-      <c r="A406" s="4" t="s">
+      <c r="A406" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B406">
         <v>406</v>
       </c>
       <c r="C406" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A406:B406,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 406")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 406")</v>
       </c>
     </row>
     <row r="407" ht="14.25">
-      <c r="A407" s="4" t="s">
+      <c r="A407" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B407">
         <v>407</v>
       </c>
       <c r="C407" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A407:B407,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 407")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 407")</v>
       </c>
     </row>
     <row r="408" ht="14.25">
-      <c r="A408" s="4" t="s">
+      <c r="A408" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B408">
         <v>408</v>
       </c>
       <c r="C408" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A408:B408,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 408")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 408")</v>
       </c>
     </row>
     <row r="409" ht="14.25">
-      <c r="A409" s="4" t="s">
+      <c r="A409" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B409">
         <v>409</v>
       </c>
       <c r="C409" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A409:B409,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 409")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 409")</v>
       </c>
     </row>
     <row r="410" ht="14.25">
-      <c r="A410" s="4" t="s">
+      <c r="A410" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B410">
         <v>410</v>
       </c>
       <c r="C410" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A410:B410,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 410")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 410")</v>
       </c>
     </row>
     <row r="411" ht="14.25">
-      <c r="A411" s="4" t="s">
+      <c r="A411" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B411">
         <v>411</v>
       </c>
       <c r="C411" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A411:B411,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 411")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 411")</v>
       </c>
     </row>
     <row r="412" ht="14.25">
-      <c r="A412" s="4" t="s">
+      <c r="A412" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B412">
         <v>412</v>
       </c>
       <c r="C412" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A412:B412,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 412")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 412")</v>
       </c>
     </row>
     <row r="413" ht="14.25">
-      <c r="A413" s="4" t="s">
+      <c r="A413" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B413">
         <v>413</v>
       </c>
       <c r="C413" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A413:B413,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 413")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 413")</v>
       </c>
     </row>
     <row r="414" ht="14.25">
-      <c r="A414" s="4" t="s">
+      <c r="A414" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B414">
         <v>414</v>
       </c>
       <c r="C414" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A414:B414,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 414")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 414")</v>
       </c>
     </row>
     <row r="415" ht="14.25">
-      <c r="A415" s="4" t="s">
+      <c r="A415" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B415">
         <v>415</v>
       </c>
       <c r="C415" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A415:B415,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 415")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 415")</v>
       </c>
     </row>
     <row r="416" ht="14.25">
-      <c r="A416" s="4" t="s">
+      <c r="A416" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B416">
         <v>416</v>
       </c>
       <c r="C416" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A416:B416,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 416")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 416")</v>
       </c>
     </row>
     <row r="417" ht="14.25">
-      <c r="A417" s="4" t="s">
+      <c r="A417" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B417">
         <v>417</v>
       </c>
       <c r="C417" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A417:B417,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 417")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 417")</v>
       </c>
     </row>
     <row r="418" ht="14.25">
-      <c r="A418" s="4" t="s">
+      <c r="A418" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B418">
         <v>418</v>
       </c>
       <c r="C418" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A418:B418,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 418")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 418")</v>
       </c>
     </row>
     <row r="419" ht="14.25">
-      <c r="A419" s="4" t="s">
+      <c r="A419" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B419">
         <v>419</v>
       </c>
       <c r="C419" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A419:B419,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 419")</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 419")</v>
       </c>
     </row>
     <row r="420" ht="14.25">
-      <c r="A420" s="4" t="s">
+      <c r="A420" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B420">
         <v>420</v>
       </c>
       <c r="C420" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A420:B420,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 420")</v>
+        <f t="shared" ref="C420:C462" si="8">_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A420:B420,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 420")</v>
       </c>
     </row>
     <row r="421" ht="14.25">
-      <c r="A421" s="4" t="s">
+      <c r="A421" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B421">
         <v>421</v>
       </c>
       <c r="C421" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A421:B421,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 421")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 421")</v>
       </c>
     </row>
     <row r="422" ht="14.25">
-      <c r="A422" s="4" t="s">
+      <c r="A422" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B422">
         <v>422</v>
       </c>
       <c r="C422" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A422:B422,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 422")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 422")</v>
       </c>
     </row>
     <row r="423" ht="14.25">
-      <c r="A423" s="4" t="s">
+      <c r="A423" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B423">
         <v>423</v>
       </c>
       <c r="C423" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A423:B423,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 423")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 423")</v>
       </c>
     </row>
     <row r="424" ht="14.25">
-      <c r="A424" s="4" t="s">
+      <c r="A424" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B424">
         <v>424</v>
       </c>
       <c r="C424" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A424:B424,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 424")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 424")</v>
       </c>
     </row>
     <row r="425" ht="14.25">
-      <c r="A425" s="4" t="s">
+      <c r="A425" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B425">
         <v>425</v>
       </c>
       <c r="C425" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A425:B425,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 425")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 425")</v>
       </c>
     </row>
     <row r="426" ht="14.25">
-      <c r="A426" s="4" t="s">
+      <c r="A426" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B426">
         <v>426</v>
       </c>
       <c r="C426" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A426:B426,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 426")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 426")</v>
       </c>
     </row>
     <row r="427" ht="14.25">
-      <c r="A427" s="4" t="s">
+      <c r="A427" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B427">
         <v>427</v>
       </c>
       <c r="C427" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A427:B427,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 427")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 427")</v>
       </c>
     </row>
     <row r="428" ht="14.25">
-      <c r="A428" s="4" t="s">
+      <c r="A428" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B428">
         <v>428</v>
       </c>
       <c r="C428" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A428:B428,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 428")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 428")</v>
       </c>
     </row>
     <row r="429" ht="14.25">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B429">
         <v>429</v>
       </c>
       <c r="C429" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A429:B429,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 429")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 429")</v>
       </c>
     </row>
     <row r="430" ht="14.25">
-      <c r="A430" s="4" t="s">
+      <c r="A430" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B430">
         <v>430</v>
       </c>
       <c r="C430" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A430:B430,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 430")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 430")</v>
       </c>
     </row>
     <row r="431" ht="14.25">
-      <c r="A431" s="4" t="s">
+      <c r="A431" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B431">
         <v>431</v>
       </c>
       <c r="C431" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A431:B431,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 431")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 431")</v>
       </c>
     </row>
     <row r="432" ht="14.25">
-      <c r="A432" s="4" t="s">
+      <c r="A432" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B432">
         <v>432</v>
       </c>
       <c r="C432" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A432:B432,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 432")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 432")</v>
       </c>
     </row>
     <row r="433" ht="14.25">
-      <c r="A433" s="4" t="s">
+      <c r="A433" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B433">
         <v>433</v>
       </c>
       <c r="C433" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A433:B433,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 433")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 433")</v>
       </c>
     </row>
     <row r="434" ht="14.25">
-      <c r="A434" s="4" t="s">
+      <c r="A434" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B434">
         <v>434</v>
       </c>
       <c r="C434" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A434:B434,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 434")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 434")</v>
       </c>
     </row>
     <row r="435" ht="14.25">
-      <c r="A435" s="4" t="s">
+      <c r="A435" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B435">
         <v>435</v>
       </c>
       <c r="C435" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A435:B435,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 435")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 435")</v>
       </c>
     </row>
     <row r="436" ht="14.25">
-      <c r="A436" s="4" t="s">
+      <c r="A436" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B436">
         <v>436</v>
       </c>
       <c r="C436" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A436:B436,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 436")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 436")</v>
       </c>
     </row>
     <row r="437" ht="14.25">
-      <c r="A437" s="4" t="s">
+      <c r="A437" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B437">
         <v>437</v>
       </c>
       <c r="C437" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A437:B437,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 437")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 437")</v>
       </c>
     </row>
     <row r="438" ht="14.25">
-      <c r="A438" s="4" t="s">
+      <c r="A438" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B438">
         <v>438</v>
       </c>
       <c r="C438" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A438:B438,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 438")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 438")</v>
       </c>
     </row>
     <row r="439" ht="14.25">
-      <c r="A439" s="4" t="s">
+      <c r="A439" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B439">
         <v>439</v>
       </c>
       <c r="C439" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A439:B439,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 439")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 439")</v>
       </c>
     </row>
     <row r="440" ht="14.25">
-      <c r="A440" s="4" t="s">
+      <c r="A440" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B440">
         <v>440</v>
       </c>
       <c r="C440" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A440:B440,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 440")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 440")</v>
       </c>
     </row>
     <row r="441" ht="14.25">
-      <c r="A441" s="4" t="s">
+      <c r="A441" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B441">
         <v>441</v>
       </c>
       <c r="C441" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A441:B441,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 441")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 441")</v>
       </c>
     </row>
     <row r="442" ht="14.25">
-      <c r="A442" s="4" t="s">
+      <c r="A442" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B442">
         <v>442</v>
       </c>
       <c r="C442" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A442:B442,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 442")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 442")</v>
       </c>
     </row>
     <row r="443" ht="14.25">
-      <c r="A443" s="4" t="s">
+      <c r="A443" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B443">
         <v>443</v>
       </c>
       <c r="C443" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A443:B443,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 443")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 443")</v>
       </c>
     </row>
     <row r="444" ht="14.25">
-      <c r="A444" s="4" t="s">
+      <c r="A444" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B444">
         <v>444</v>
       </c>
       <c r="C444" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A444:B444,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 444")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 444")</v>
       </c>
     </row>
     <row r="445" ht="14.25">
-      <c r="A445" s="4" t="s">
+      <c r="A445" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B445">
         <v>445</v>
       </c>
       <c r="C445" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A445:B445,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 445")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 445")</v>
       </c>
     </row>
     <row r="446" ht="14.25">
-      <c r="A446" s="4" t="s">
+      <c r="A446" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B446">
         <v>446</v>
       </c>
       <c r="C446" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A446:B446,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 446")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 446")</v>
       </c>
     </row>
     <row r="447" ht="14.25">
-      <c r="A447" s="4" t="s">
+      <c r="A447" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B447">
         <v>447</v>
       </c>
       <c r="C447" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A447:B447,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 447")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 447")</v>
       </c>
     </row>
     <row r="448" ht="14.25">
-      <c r="A448" s="4" t="s">
+      <c r="A448" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B448">
         <v>448</v>
       </c>
       <c r="C448" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A448:B448,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 448")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 448")</v>
       </c>
     </row>
     <row r="449" ht="14.25">
-      <c r="A449" s="4" t="s">
+      <c r="A449" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B449">
         <v>449</v>
       </c>
       <c r="C449" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A449:B449,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 449")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 449")</v>
       </c>
     </row>
     <row r="450" ht="14.25">
-      <c r="A450" s="4" t="s">
+      <c r="A450" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B450">
         <v>450</v>
       </c>
       <c r="C450" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A450:B450,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 450")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 450")</v>
       </c>
     </row>
     <row r="451" ht="14.25">
-      <c r="A451" s="4" t="s">
+      <c r="A451" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B451">
         <v>451</v>
       </c>
       <c r="C451" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A451:B451,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 451")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 451")</v>
       </c>
     </row>
     <row r="452" ht="14.25">
-      <c r="A452" s="4" t="s">
+      <c r="A452" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B452">
         <v>452</v>
       </c>
       <c r="C452" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A452:B452,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 452")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 452")</v>
       </c>
     </row>
     <row r="453" ht="14.25">
-      <c r="A453" s="4" t="s">
+      <c r="A453" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B453">
         <v>453</v>
       </c>
       <c r="C453" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A453:B453,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 453")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 453")</v>
       </c>
     </row>
     <row r="454" ht="14.25">
-      <c r="A454" s="4" t="s">
+      <c r="A454" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B454">
         <v>454</v>
       </c>
       <c r="C454" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A454:B454,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 454")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 454")</v>
       </c>
     </row>
     <row r="455" ht="14.25">
-      <c r="A455" s="4" t="s">
+      <c r="A455" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B455">
         <v>455</v>
       </c>
       <c r="C455" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A455:B455,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 455")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 455")</v>
       </c>
     </row>
     <row r="456" ht="14.25">
-      <c r="A456" s="4" t="s">
+      <c r="A456" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B456">
         <v>456</v>
       </c>
       <c r="C456" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A456:B456,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 456")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 456")</v>
       </c>
     </row>
     <row r="457" ht="14.25">
-      <c r="A457" s="4" t="s">
+      <c r="A457" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B457">
         <v>457</v>
       </c>
       <c r="C457" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A457:B457,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 457")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 457")</v>
       </c>
     </row>
     <row r="458" ht="14.25">
-      <c r="A458" s="4" t="s">
+      <c r="A458" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B458">
         <v>458</v>
       </c>
       <c r="C458" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A458:B458,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 458")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 458")</v>
       </c>
     </row>
     <row r="459" ht="14.25">
-      <c r="A459" s="4" t="s">
+      <c r="A459" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B459">
         <v>459</v>
       </c>
       <c r="C459" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A459:B459,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 459")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 459")</v>
       </c>
     </row>
     <row r="460" ht="14.25">
-      <c r="A460" s="4" t="s">
+      <c r="A460" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B460">
         <v>460</v>
       </c>
       <c r="C460" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A460:B460,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 460")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 460")</v>
       </c>
     </row>
     <row r="461" ht="14.25">
-      <c r="A461" s="4" t="s">
+      <c r="A461" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B461">
         <v>461</v>
       </c>
       <c r="C461" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A461:B461,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 461")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 461")</v>
       </c>
     </row>
     <row r="462" ht="14.25">
-      <c r="A462" s="4" t="s">
+      <c r="A462" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B462">
         <v>462</v>
       </c>
       <c r="C462" t="str">
-        <f>_xlfn.CONCAT("sh, err := wb.AddSheet(",CHAR(34),A462:B462,CHAR(34),")")</f>
-        <v>sh, err := wb.AddSheet("Накладная 462")</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">sh, err := wb.AddSheet("Накладная 462")</v>
       </c>
     </row>
     <row r="463" ht="14.25">
-      <c r="A463" s="4" t="s">
+      <c r="A463" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B463">
         <v>463</v>
       </c>
       <c r="C463" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A463:B463,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 463")</v>
+        <f t="shared" ref="C463:C500" si="9">_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A463:B463,CHAR(34),")")</f>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 463")</v>
       </c>
     </row>
     <row r="464" ht="14.25">
-      <c r="A464" s="4" t="s">
+      <c r="A464" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B464">
         <v>464</v>
       </c>
       <c r="C464" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A464:B464,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 464")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 464")</v>
       </c>
     </row>
     <row r="465" ht="14.25">
-      <c r="A465" s="4" t="s">
+      <c r="A465" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B465">
         <v>465</v>
       </c>
       <c r="C465" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A465:B465,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 465")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 465")</v>
       </c>
     </row>
     <row r="466" ht="14.25">
-      <c r="A466" s="4" t="s">
+      <c r="A466" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B466">
         <v>466</v>
       </c>
       <c r="C466" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A466:B466,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 466")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 466")</v>
       </c>
     </row>
     <row r="467" ht="14.25">
-      <c r="A467" s="4" t="s">
+      <c r="A467" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B467">
         <v>467</v>
       </c>
       <c r="C467" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A467:B467,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 467")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 467")</v>
       </c>
     </row>
     <row r="468" ht="14.25">
-      <c r="A468" s="4" t="s">
+      <c r="A468" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B468">
         <v>468</v>
       </c>
       <c r="C468" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A468:B468,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 468")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 468")</v>
       </c>
     </row>
     <row r="469" ht="14.25">
-      <c r="A469" s="4" t="s">
+      <c r="A469" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B469">
         <v>469</v>
       </c>
       <c r="C469" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A469:B469,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 469")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 469")</v>
       </c>
     </row>
     <row r="470" ht="14.25">
-      <c r="A470" s="4" t="s">
+      <c r="A470" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B470">
         <v>470</v>
       </c>
       <c r="C470" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A470:B470,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 470")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 470")</v>
       </c>
     </row>
     <row r="471" ht="14.25">
-      <c r="A471" s="4" t="s">
+      <c r="A471" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B471">
         <v>471</v>
       </c>
       <c r="C471" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A471:B471,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 471")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 471")</v>
       </c>
     </row>
     <row r="472" ht="14.25">
-      <c r="A472" s="4" t="s">
+      <c r="A472" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B472">
         <v>472</v>
       </c>
       <c r="C472" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A472:B472,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 472")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 472")</v>
       </c>
     </row>
     <row r="473" ht="14.25">
-      <c r="A473" s="4" t="s">
+      <c r="A473" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B473">
         <v>473</v>
       </c>
       <c r="C473" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A473:B473,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 473")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 473")</v>
       </c>
     </row>
     <row r="474" ht="14.25">
-      <c r="A474" s="4" t="s">
+      <c r="A474" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B474">
         <v>474</v>
       </c>
       <c r="C474" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A474:B474,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 474")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 474")</v>
       </c>
     </row>
     <row r="475" ht="14.25">
-      <c r="A475" s="4" t="s">
+      <c r="A475" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B475">
         <v>475</v>
       </c>
       <c r="C475" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A475:B475,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 475")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 475")</v>
       </c>
     </row>
     <row r="476" ht="14.25">
-      <c r="A476" s="4" t="s">
+      <c r="A476" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B476">
         <v>476</v>
       </c>
       <c r="C476" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A476:B476,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 476")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 476")</v>
       </c>
     </row>
     <row r="477" ht="14.25">
-      <c r="A477" s="4" t="s">
+      <c r="A477" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B477">
         <v>477</v>
       </c>
       <c r="C477" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A477:B477,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 477")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 477")</v>
       </c>
     </row>
     <row r="478" ht="14.25">
-      <c r="A478" s="4" t="s">
+      <c r="A478" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B478">
         <v>478</v>
       </c>
       <c r="C478" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A478:B478,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 478")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 478")</v>
       </c>
     </row>
     <row r="479" ht="14.25">
-      <c r="A479" s="4" t="s">
+      <c r="A479" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B479">
         <v>479</v>
       </c>
       <c r="C479" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A479:B479,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 479")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 479")</v>
       </c>
     </row>
     <row r="480" ht="14.25">
-      <c r="A480" s="4" t="s">
+      <c r="A480" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B480">
         <v>480</v>
       </c>
       <c r="C480" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A480:B480,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 480")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 480")</v>
       </c>
     </row>
     <row r="481" ht="14.25">
-      <c r="A481" s="4" t="s">
+      <c r="A481" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B481">
         <v>481</v>
       </c>
       <c r="C481" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A481:B481,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 481")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 481")</v>
       </c>
     </row>
     <row r="482" ht="14.25">
-      <c r="A482" s="4" t="s">
+      <c r="A482" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B482">
         <v>482</v>
       </c>
       <c r="C482" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A482:B482,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 482")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 482")</v>
       </c>
     </row>
     <row r="483" ht="14.25">
-      <c r="A483" s="4" t="s">
+      <c r="A483" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B483">
         <v>483</v>
       </c>
       <c r="C483" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A483:B483,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 483")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 483")</v>
       </c>
     </row>
     <row r="484" ht="14.25">
-      <c r="A484" s="4" t="s">
+      <c r="A484" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B484">
         <v>484</v>
       </c>
       <c r="C484" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A484:B484,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 484")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 484")</v>
       </c>
     </row>
     <row r="485" ht="14.25">
-      <c r="A485" s="4" t="s">
+      <c r="A485" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B485">
         <v>485</v>
       </c>
       <c r="C485" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A485:B485,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 485")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 485")</v>
       </c>
     </row>
     <row r="486" ht="14.25">
-      <c r="A486" s="4" t="s">
+      <c r="A486" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B486">
         <v>486</v>
       </c>
       <c r="C486" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A486:B486,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 486")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 486")</v>
       </c>
     </row>
     <row r="487" ht="14.25">
-      <c r="A487" s="4" t="s">
+      <c r="A487" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B487">
         <v>487</v>
       </c>
       <c r="C487" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A487:B487,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 487")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 487")</v>
       </c>
     </row>
     <row r="488" ht="14.25">
-      <c r="A488" s="4" t="s">
+      <c r="A488" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B488">
         <v>488</v>
       </c>
       <c r="C488" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A488:B488,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 488")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 488")</v>
       </c>
     </row>
     <row r="489" ht="14.25">
-      <c r="A489" s="4" t="s">
+      <c r="A489" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B489">
         <v>489</v>
       </c>
       <c r="C489" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A489:B489,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 489")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 489")</v>
       </c>
     </row>
     <row r="490" ht="14.25">
-      <c r="A490" s="4" t="s">
+      <c r="A490" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B490">
         <v>490</v>
       </c>
       <c r="C490" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A490:B490,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 490")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 490")</v>
       </c>
     </row>
     <row r="491" ht="14.25">
-      <c r="A491" s="4" t="s">
+      <c r="A491" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B491">
         <v>491</v>
       </c>
       <c r="C491" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A491:B491,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 491")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 491")</v>
       </c>
     </row>
     <row r="492" ht="14.25">
-      <c r="A492" s="4" t="s">
+      <c r="A492" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B492">
         <v>492</v>
       </c>
       <c r="C492" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A492:B492,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 492")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 492")</v>
       </c>
     </row>
     <row r="493" ht="14.25">
-      <c r="A493" s="4" t="s">
+      <c r="A493" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B493">
         <v>493</v>
       </c>
       <c r="C493" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A493:B493,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 493")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 493")</v>
       </c>
     </row>
     <row r="494" ht="14.25">
-      <c r="A494" s="4" t="s">
+      <c r="A494" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B494">
         <v>494</v>
       </c>
       <c r="C494" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A494:B494,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 494")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 494")</v>
       </c>
     </row>
     <row r="495" ht="14.25">
-      <c r="A495" s="4" t="s">
+      <c r="A495" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B495">
         <v>495</v>
       </c>
       <c r="C495" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A495:B495,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 495")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 495")</v>
       </c>
     </row>
     <row r="496" ht="14.25">
-      <c r="A496" s="4" t="s">
+      <c r="A496" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B496">
         <v>496</v>
       </c>
       <c r="C496" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A496:B496,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 496")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 496")</v>
       </c>
     </row>
     <row r="497" ht="14.25">
-      <c r="A497" s="4" t="s">
+      <c r="A497" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B497">
         <v>497</v>
       </c>
       <c r="C497" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A497:B497,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 497")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 497")</v>
       </c>
     </row>
     <row r="498" ht="14.25">
-      <c r="A498" s="4" t="s">
+      <c r="A498" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B498">
         <v>498</v>
       </c>
       <c r="C498" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A498:B498,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 498")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 498")</v>
       </c>
     </row>
     <row r="499" ht="14.25">
-      <c r="A499" s="4" t="s">
+      <c r="A499" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B499">
         <v>499</v>
       </c>
       <c r="C499" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A499:B499,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 499")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 499")</v>
       </c>
     </row>
     <row r="500" ht="14.25">
-      <c r="A500" s="4" t="s">
+      <c r="A500" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B500">
         <v>500</v>
       </c>
       <c r="C500" t="str">
-        <f>_xlfn.CONCAT("sh, err = wb.AddSheet(",CHAR(34),A500:B500,CHAR(34),")")</f>
-        <v>sh, err = wb.AddSheet("Накладная 500")</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">sh, err = wb.AddSheet("Накладная 500")</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
-  <pageSetup cellComments="none" copies="1" errors="displayed" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" usePrinterDefaults="true" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7403,14 +7399,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="19.7109375"/>
+    <col customWidth="1" min="1" max="1" width="19.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -7444,7 +7440,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8005,19 +8001,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
-  <pageSetup cellComments="none" copies="1" errors="displayed" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" usePrinterDefaults="true" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-</worksheet>
 </file>
--- a/samplefile.xlsx
+++ b/samplefile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1535">
   <si>
     <t xml:space="preserve">Тип декларации</t>
   </si>
@@ -4619,6 +4619,9 @@
   </si>
   <si>
     <t>Описание</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>Конец</t>
@@ -4928,9 +4931,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6140,7 +6141,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00590025-008B-4FC7-AE33-0018001F0098}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A00A6-00B1-48DE-B500-0066005200AB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>'Справочники'!$K$2:$K$3</xm:f>
           </x14:formula1>
@@ -11051,7 +11052,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11538,13 +11539,13 @@
       </c>
       <c r="D26">
         <f>SUM(D28:D527)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="4">
         <f>SUM(I28:I527)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="14.25">
@@ -11586,13 +11587,34 @@
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" t="str">
+      <c r="A28">
         <f>IF(B28="","",1)</f>
-        <v/>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="D28" s="46"/>
-      <c r="H28" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C28">
+        <v>123</v>
+      </c>
+      <c r="D28" s="46">
+        <v>123</v>
+      </c>
+      <c r="E28">
+        <v>123</v>
+      </c>
+      <c r="F28">
+        <v>123</v>
+      </c>
+      <c r="G28">
+        <v>123</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="str">
@@ -11600,7 +11622,7 @@
         <v/>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="47"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="48"/>
     </row>
     <row r="30" ht="14.25">
@@ -16088,7 +16110,7 @@
     </row>
     <row r="528" ht="14.25">
       <c r="A528" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B528" s="4"/>
       <c r="D528" s="48"/>
